--- a/DDAf_2022_tableau_annexe_Tab18.xlsx
+++ b/DDAf_2022_tableau_annexe_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -529,6 +529,9 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
+    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
     <t>Source : Base de données des Perspectives de l'économie mondiale du FMI, octobre 2021. Pour la dette brute en monnaie nationale et en devises, base de données des Perspectives de l'économie mondiale du FMI, octobre 2019.</t>
   </si>
   <si>
@@ -541,13 +544,10 @@
     <t>Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs.</t>
   </si>
   <si>
-    <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format csv compressé, y compris les données historiques remontant à 2000, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le premier des deux fichiers de données.</t>
-  </si>
-  <si>
-    <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel non compressé, y compris les données historiques remontant à 2000, cliquez ici pour télécharger le deuxième des deux fichiers de données</t>
+    <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
+  </si>
+  <si>
+    <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1295,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5350,6 +5350,9 @@
       <c r="M104" s="49"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A105" s="47" t="s">
+        <v>169</v>
+      </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
       <c r="D105" s="49"/>
@@ -5377,10 +5380,8 @@
       <c r="L106" s="49"/>
       <c r="M106" s="49"/>
     </row>
-    <row r="107" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="50" t="s">
-        <v>169</v>
-      </c>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B107" s="48"/>
       <c r="C107" s="49"/>
       <c r="D107" s="49"/>
       <c r="E107" s="49"/>
@@ -5394,7 +5395,9 @@
       <c r="M107" s="49"/>
     </row>
     <row r="108" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="50"/>
+      <c r="B108" s="50" t="s">
+        <v>170</v>
+      </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
       <c r="E108" s="49"/>
@@ -5407,10 +5410,8 @@
       <c r="L108" s="49"/>
       <c r="M108" s="49"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
-        <v>170</v>
-      </c>
+    <row r="109" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="50"/>
       <c r="C109" s="49"/>
       <c r="D109" s="49"/>
       <c r="E109" s="49"/>
@@ -5456,9 +5457,7 @@
       <c r="M111" s="49"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>173</v>
-      </c>
+      <c r="B112" s="2"/>
       <c r="C112" s="49"/>
       <c r="D112" s="49"/>
       <c r="E112" s="49"/>
@@ -5473,7 +5472,7 @@
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -5487,17 +5486,46 @@
       <c r="L113" s="49"/>
       <c r="M113" s="49"/>
     </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B114" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="49"/>
+      <c r="G114" s="49"/>
+      <c r="H114" s="49"/>
+      <c r="I114" s="49"/>
+      <c r="J114" s="49"/>
+      <c r="K114" s="49"/>
+      <c r="L114" s="49"/>
+      <c r="M114" s="49"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B115" s="2"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="49"/>
+      <c r="E115" s="49"/>
+      <c r="F115" s="49"/>
+      <c r="G115" s="49"/>
+      <c r="H115" s="49"/>
+      <c r="I115" s="49"/>
+      <c r="J115" s="49"/>
+      <c r="K115" s="49"/>
+      <c r="L115" s="49"/>
+      <c r="M115" s="49"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
-    <hyperlink ref="B111" r:id="rId1"/>
-    <hyperlink ref="B113" r:id="rId2"/>
-    <hyperlink ref="B109" r:id="rId3"/>
-    <hyperlink ref="B110" r:id="rId4"/>
-    <hyperlink ref="B112" r:id="rId5"/>
-    <hyperlink ref="B107" r:id="rId6"/>
+    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B110" r:id="rId2"/>
+    <hyperlink ref="B111" r:id="rId3"/>
+    <hyperlink ref="B113" r:id="rId4"/>
+    <hyperlink ref="B114" r:id="rId5" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/DDAf_2022_tableau_annexe_Tab18.xlsx
+++ b/DDAf_2022_tableau_annexe_Tab18.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11150"/>
   </bookViews>
   <sheets>
     <sheet name="Tab18" sheetId="1" r:id="rId1"/>
@@ -5523,7 +5523,7 @@
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B114" r:id="rId5" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
+    <hyperlink ref="B114" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="47" fitToWidth="0" orientation="portrait" r:id="rId6"/>
